--- a/input.xlsx
+++ b/input.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="203">
   <si>
     <t>USERNAME</t>
   </si>
@@ -614,6 +614,18 @@
   </si>
   <si>
     <t>Welfare Officer</t>
+  </si>
+  <si>
+    <t>JASON</t>
+  </si>
+  <si>
+    <t>WHITTLE</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>COOL</t>
   </si>
 </sst>
 </file>
@@ -955,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,6 +997,26 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="211">
   <si>
     <t>USERNAME</t>
   </si>
@@ -626,6 +626,30 @@
   </si>
   <si>
     <t>COOL</t>
+  </si>
+  <si>
+    <t>BOB1</t>
+  </si>
+  <si>
+    <t>BOB2</t>
+  </si>
+  <si>
+    <t>BOB3</t>
+  </si>
+  <si>
+    <t>BOB4</t>
+  </si>
+  <si>
+    <t>HOP1</t>
+  </si>
+  <si>
+    <t>HOP2</t>
+  </si>
+  <si>
+    <t>HOP3</t>
+  </si>
+  <si>
+    <t>HOP4</t>
   </si>
 </sst>
 </file>
@@ -970,7 +994,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,20 +1027,68 @@
       <c r="A2" t="s">
         <v>199</v>
       </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -10,12 +10,12 @@
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
     <sheet name="POSITIONS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="235">
   <si>
     <t>USERNAME</t>
   </si>
@@ -616,40 +616,112 @@
     <t>Welfare Officer</t>
   </si>
   <si>
-    <t>JASON</t>
-  </si>
-  <si>
-    <t>WHITTLE</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>COOL</t>
-  </si>
-  <si>
-    <t>BOB1</t>
-  </si>
-  <si>
-    <t>BOB2</t>
-  </si>
-  <si>
-    <t>BOB3</t>
-  </si>
-  <si>
-    <t>BOB4</t>
-  </si>
-  <si>
-    <t>HOP1</t>
-  </si>
-  <si>
-    <t>HOP2</t>
-  </si>
-  <si>
-    <t>HOP3</t>
-  </si>
-  <si>
-    <t>HOP4</t>
+    <t>MaryScD</t>
+  </si>
+  <si>
+    <t>PaulSh2</t>
+  </si>
+  <si>
+    <t>PenaKa</t>
+  </si>
+  <si>
+    <t>DimapiA</t>
+  </si>
+  <si>
+    <t>BillesK</t>
+  </si>
+  <si>
+    <t>OuRu</t>
+  </si>
+  <si>
+    <t>KaurG5</t>
+  </si>
+  <si>
+    <t>ThevaK</t>
+  </si>
+  <si>
+    <t>SinclP</t>
+  </si>
+  <si>
+    <t>WangYi3</t>
+  </si>
+  <si>
+    <t>NyakuH</t>
+  </si>
+  <si>
+    <t>MahinR</t>
+  </si>
+  <si>
+    <t>Deepthi</t>
+  </si>
+  <si>
+    <t>Sherin</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Kristine</t>
+  </si>
+  <si>
+    <t>Rui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulwinder Bobby </t>
+  </si>
+  <si>
+    <t>Koshalya</t>
+  </si>
+  <si>
+    <t>Phoebe</t>
+  </si>
+  <si>
+    <t>Yi Li (Lydia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannah </t>
+  </si>
+  <si>
+    <t>Ruby Deol</t>
+  </si>
+  <si>
+    <t>Mary Scaria</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Pena</t>
+  </si>
+  <si>
+    <t>Dimapilis</t>
+  </si>
+  <si>
+    <t>Billeschou</t>
+  </si>
+  <si>
+    <t>Ou</t>
+  </si>
+  <si>
+    <t>Kaur</t>
+  </si>
+  <si>
+    <t>Thevar</t>
+  </si>
+  <si>
+    <t>Sinclair</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Nyakudya</t>
+  </si>
+  <si>
+    <t>Mahindroo</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,16 +1100,16 @@
         <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,16 +1117,16 @@
         <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,16 +1134,16 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,16 +1151,152 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>206</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>210</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
